--- a/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6102D5A2-97BA-43EC-A40B-4608A722C40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD837D62-B9EB-4A1B-96FD-FE59FA9FB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{366AFB15-DBF9-4ABB-A869-80031D756E4E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67D3513F-7A19-4DEB-B87B-12A5751960D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="412">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>74,58%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>74,26%</t>
@@ -98,7 +98,7 @@
     <t>72,52%</t>
   </si>
   <si>
-    <t>75,97%</t>
+    <t>76,09%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,1062 +137,1047 @@
     <t>3,73%</t>
   </si>
   <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>8,94%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>88,74%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
     <t>91,83%</t>
   </si>
   <si>
@@ -1229,15 +1214,9 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>91,12%</t>
   </si>
   <si>
@@ -1293,9 +1272,6 @@
   </si>
   <si>
     <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -1710,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706AE7DA-4615-41FE-8A71-423BD38E4A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048F50B-6546-4FB1-9147-4A963E36F537}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,13 +1927,13 @@
         <v>66398</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>106</v>
@@ -1966,13 +1942,13 @@
         <v>104834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1963,13 @@
         <v>1030855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1290</v>
@@ -2002,13 +1978,13 @@
         <v>1314118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2327</v>
@@ -2017,18 +1993,18 @@
         <v>2344973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2040,13 +2016,13 @@
         <v>1346063</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1157</v>
@@ -2055,13 +2031,13 @@
         <v>1177400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2467</v>
@@ -2070,13 +2046,13 @@
         <v>2523464</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2067,13 @@
         <v>296433</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>303</v>
@@ -2106,13 +2082,13 @@
         <v>311748</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>592</v>
@@ -2121,13 +2097,13 @@
         <v>608182</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2118,13 @@
         <v>47213</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -2157,13 +2133,13 @@
         <v>93616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -2172,13 +2148,13 @@
         <v>140829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2169,13 @@
         <v>1689710</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1549</v>
@@ -2208,13 +2184,13 @@
         <v>1582765</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3194</v>
@@ -2223,18 +2199,18 @@
         <v>3272476</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2222,13 @@
         <v>444846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>342</v>
@@ -2261,13 +2237,13 @@
         <v>356854</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>766</v>
@@ -2276,13 +2252,13 @@
         <v>801699</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2273,13 @@
         <v>93150</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -2312,13 +2288,13 @@
         <v>90017</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>173</v>
@@ -2327,13 +2303,13 @@
         <v>183167</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2324,13 @@
         <v>9029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2363,13 +2339,13 @@
         <v>29541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -2378,13 +2354,13 @@
         <v>38570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2375,13 @@
         <v>547025</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2414,13 +2390,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>975</v>
@@ -2429,13 +2405,13 @@
         <v>1023437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2428,13 @@
         <v>2559705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2450</v>
@@ -2467,13 +2443,13 @@
         <v>2506759</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>4956</v>
@@ -2482,13 +2458,13 @@
         <v>5066464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2479,13 @@
         <v>613206</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>658</v>
@@ -2518,13 +2494,13 @@
         <v>676981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>1263</v>
@@ -2533,13 +2509,13 @@
         <v>1290188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2530,13 @@
         <v>94679</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>183</v>
@@ -2569,13 +2545,13 @@
         <v>189555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -2584,13 +2560,13 @@
         <v>284234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2581,13 @@
         <v>3267590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3291</v>
@@ -2620,13 +2596,13 @@
         <v>3373295</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6496</v>
@@ -2635,18 +2611,18 @@
         <v>6640885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E824098-A319-4938-B613-78C293EFD8DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5071D7E-9C06-4A45-B01C-32E59D2CB0E1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2789,13 +2765,13 @@
         <v>840107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1052</v>
@@ -2804,13 +2780,13 @@
         <v>1128275</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>1837</v>
@@ -2819,13 +2795,13 @@
         <v>1968382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2816,13 @@
         <v>108778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>160</v>
@@ -2855,13 +2831,13 @@
         <v>170857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -2870,13 +2846,13 @@
         <v>279635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2867,13 @@
         <v>23542</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -2906,13 +2882,13 @@
         <v>36751</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -2921,13 +2897,13 @@
         <v>60294</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2918,13 @@
         <v>972427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1245</v>
@@ -2957,13 +2933,13 @@
         <v>1335883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2151</v>
@@ -2972,18 +2948,18 @@
         <v>2308310</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2995,7 +2971,7 @@
         <v>1640775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>151</v>
@@ -3082,7 +3058,7 @@
         <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3073,13 @@
         <v>48900</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3112,13 +3088,13 @@
         <v>73572</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -3127,13 +3103,13 @@
         <v>122472</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3124,13 @@
         <v>1956488</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1628</v>
@@ -3163,13 +3139,13 @@
         <v>1748859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3479</v>
@@ -3178,18 +3154,18 @@
         <v>3705347</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3201,13 +3177,13 @@
         <v>409536</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H12" s="7">
         <v>347</v>
@@ -3306,10 +3282,10 @@
         <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3318,13 +3294,13 @@
         <v>12431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -3333,10 +3309,10 @@
         <v>26191</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>199</v>
@@ -3354,13 +3330,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>411</v>
@@ -3369,13 +3345,13 @@
         <v>457672</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>849</v>
@@ -3384,13 +3360,13 @@
         <v>938853</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3410,7 @@
         <v>5453</v>
       </c>
       <c r="N16" s="7">
-        <v>5840719</v>
+        <v>5840718</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>206</v>
@@ -3476,10 +3452,10 @@
         <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -3488,13 +3464,13 @@
         <v>902835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3485,13 @@
         <v>86202</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -3542,10 +3518,10 @@
         <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3536,13 @@
         <v>3410096</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3284</v>
@@ -3575,33 +3551,33 @@
         <v>3542413</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6479</v>
       </c>
       <c r="N19" s="7">
-        <v>6952510</v>
+        <v>6952509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C899A2-C9EE-44CC-912F-5691A417FD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F45638-B2F5-4D79-9519-8C50D415C894}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3637,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,13 +3720,13 @@
         <v>650608</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>761</v>
@@ -3759,13 +3735,13 @@
         <v>848804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>1418</v>
@@ -3774,13 +3750,13 @@
         <v>1499412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3771,13 @@
         <v>82049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -3810,13 +3786,13 @@
         <v>113818</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
@@ -3825,13 +3801,13 @@
         <v>195867</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3822,13 @@
         <v>20614</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3861,13 +3837,13 @@
         <v>26572</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3876,13 +3852,13 @@
         <v>47186</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3873,13 @@
         <v>753271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>887</v>
@@ -3912,13 +3888,13 @@
         <v>989194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1648</v>
@@ -3927,18 +3903,18 @@
         <v>1742465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3950,13 +3926,13 @@
         <v>1832147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>1652</v>
@@ -3965,13 +3941,13 @@
         <v>1719446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>3378</v>
@@ -3980,13 +3956,13 @@
         <v>3551593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3977,13 @@
         <v>190691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -4016,13 +3992,13 @@
         <v>201475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>371</v>
@@ -4031,13 +4007,13 @@
         <v>392166</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4028,13 @@
         <v>46426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4067,13 +4043,13 @@
         <v>62260</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4082,13 +4058,13 @@
         <v>108686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4079,13 @@
         <v>2069264</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1904</v>
@@ -4118,13 +4094,13 @@
         <v>1983181</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3850</v>
@@ -4133,18 +4109,18 @@
         <v>4052445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4156,13 +4132,13 @@
         <v>469291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>447</v>
@@ -4171,13 +4147,13 @@
         <v>465173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>877</v>
@@ -4186,13 +4162,13 @@
         <v>934462</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4183,13 @@
         <v>64240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4222,13 +4198,13 @@
         <v>61914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4237,13 +4213,13 @@
         <v>126154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4234,13 @@
         <v>12334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4273,13 +4249,13 @@
         <v>16690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4288,13 +4264,13 @@
         <v>29024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4285,13 @@
         <v>545865</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>521</v>
@@ -4324,13 +4300,13 @@
         <v>543776</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1021</v>
@@ -4339,13 +4315,13 @@
         <v>1089640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,16 +4335,16 @@
         <v>2813</v>
       </c>
       <c r="D16" s="7">
-        <v>2952045</v>
+        <v>2952046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>2860</v>
@@ -4377,13 +4353,13 @@
         <v>3033422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>5673</v>
@@ -4392,13 +4368,13 @@
         <v>5985467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,7 +4395,7 @@
         <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4428,13 +4404,13 @@
         <v>377207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>675</v>
@@ -4443,13 +4419,13 @@
         <v>714186</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4440,13 @@
         <v>79374</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4479,13 +4455,13 @@
         <v>105522</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -4494,13 +4470,13 @@
         <v>184896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,16 +4488,16 @@
         <v>3207</v>
       </c>
       <c r="D19" s="7">
-        <v>3368399</v>
+        <v>3368400</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3312</v>
@@ -4530,13 +4506,13 @@
         <v>3516151</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6519</v>
@@ -4545,18 +4521,18 @@
         <v>6884550</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714D4839-ABCC-463D-9EB3-0EA1CC8953EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46B9A2-9AB3-41E3-8277-6729EFD604F0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4592,7 +4568,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4699,13 +4675,13 @@
         <v>477657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>1285</v>
@@ -4714,13 +4690,13 @@
         <v>741536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>1901</v>
@@ -4729,13 +4705,13 @@
         <v>1219193</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4726,13 @@
         <v>36304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -4765,13 +4741,13 @@
         <v>68916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -4780,13 +4756,13 @@
         <v>105220</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4777,13 @@
         <v>26623</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>150</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4816,13 +4792,13 @@
         <v>23169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4831,13 +4807,13 @@
         <v>49792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4828,13 @@
         <v>540584</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1425</v>
@@ -4867,13 +4843,13 @@
         <v>833621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2115</v>
@@ -4882,18 +4858,18 @@
         <v>1374205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4905,13 +4881,13 @@
         <v>1982398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>2642</v>
@@ -4920,13 +4896,13 @@
         <v>2047889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>4474</v>
@@ -4935,13 +4911,13 @@
         <v>4030287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4932,13 @@
         <v>148170</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H9" s="7">
         <v>224</v>
@@ -4971,13 +4947,13 @@
         <v>159943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M9" s="7">
         <v>357</v>
@@ -4986,13 +4962,13 @@
         <v>308113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4983,13 @@
         <v>30258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -5022,13 +4998,13 @@
         <v>41057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -5037,13 +5013,13 @@
         <v>71315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5034,13 @@
         <v>2160825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>2920</v>
@@ -5073,13 +5049,13 @@
         <v>2248890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>4911</v>
@@ -5088,18 +5064,18 @@
         <v>4409715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5111,13 +5087,13 @@
         <v>614891</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H12" s="7">
         <v>890</v>
@@ -5126,13 +5102,13 @@
         <v>636660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>1510</v>
@@ -5141,13 +5117,13 @@
         <v>1251551</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5138,13 @@
         <v>45205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -5177,13 +5153,13 @@
         <v>56979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5192,13 +5168,13 @@
         <v>102184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5189,13 @@
         <v>12943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -5228,13 +5204,13 @@
         <v>18327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -5243,13 +5219,13 @@
         <v>31270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>398</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5240,13 @@
         <v>673039</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1001</v>
@@ -5279,13 +5255,13 @@
         <v>711966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1682</v>
@@ -5294,13 +5270,13 @@
         <v>1385005</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5293,13 @@
         <v>3074946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>4817</v>
@@ -5332,13 +5308,13 @@
         <v>3426085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>7885</v>
@@ -5347,13 +5323,13 @@
         <v>6501031</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5344,13 @@
         <v>229679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5383,13 +5359,13 @@
         <v>285838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>645</v>
@@ -5398,13 +5374,13 @@
         <v>515517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5395,13 @@
         <v>69823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -5434,13 +5410,13 @@
         <v>82554</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>178</v>
@@ -5449,13 +5425,13 @@
         <v>152377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5446,13 @@
         <v>3374448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>5346</v>
@@ -5485,13 +5461,13 @@
         <v>3794477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>8708</v>
@@ -5500,18 +5476,18 @@
         <v>7168925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD837D62-B9EB-4A1B-96FD-FE59FA9FB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEF179A-A357-4DEA-90B2-86B8773B5555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67D3513F-7A19-4DEB-B87B-12A5751960D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6F6E054-C391-47D0-A614-89133CFC09AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>74,58%</t>
   </si>
   <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1174 +107,1225 @@
     <t>21,69%</t>
   </si>
   <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2012 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
   </si>
 </sst>
 </file>
@@ -1686,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B048F50B-6546-4FB1-9147-4A963E36F537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB77C52-9C61-4C1D-BB99-46D561623F7F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2509,13 +2560,13 @@
         <v>1290188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2581,13 @@
         <v>94679</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>183</v>
@@ -2545,13 +2596,13 @@
         <v>189555</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>277</v>
@@ -2560,13 +2611,13 @@
         <v>284234</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2673,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5071D7E-9C06-4A45-B01C-32E59D2CB0E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F7B873-C69E-4686-96C8-78A54A25D9DB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2816,13 @@
         <v>840107</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>1052</v>
@@ -2780,13 +2831,13 @@
         <v>1128275</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1837</v>
@@ -2795,13 +2846,13 @@
         <v>1968382</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2867,13 @@
         <v>108778</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>160</v>
@@ -2831,13 +2882,13 @@
         <v>170857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>258</v>
@@ -2846,13 +2897,13 @@
         <v>279635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2918,13 @@
         <v>23542</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>33</v>
@@ -2882,13 +2933,13 @@
         <v>36751</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>56</v>
@@ -2897,13 +2948,13 @@
         <v>60294</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +3022,13 @@
         <v>1640775</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1339</v>
@@ -2986,28 +3037,28 @@
         <v>1436911</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>2894</v>
       </c>
       <c r="N8" s="7">
-        <v>3077686</v>
+        <v>3077685</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3073,13 @@
         <v>266813</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>223</v>
@@ -3037,13 +3088,13 @@
         <v>238376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>473</v>
@@ -3052,13 +3103,13 @@
         <v>505189</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3124,13 @@
         <v>48900</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -3088,13 +3139,13 @@
         <v>73572</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>112</v>
@@ -3103,13 +3154,13 @@
         <v>122472</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3202,7 @@
         <v>3479</v>
       </c>
       <c r="N11" s="7">
-        <v>3705347</v>
+        <v>3705346</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3177,13 +3228,13 @@
         <v>409536</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>347</v>
@@ -3192,13 +3243,13 @@
         <v>385116</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>722</v>
@@ -3207,13 +3258,13 @@
         <v>794651</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3279,13 @@
         <v>57886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3243,13 +3294,13 @@
         <v>60125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>102</v>
@@ -3258,13 +3309,13 @@
         <v>118011</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3330,13 @@
         <v>13760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3294,13 +3345,13 @@
         <v>12431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -3312,10 +3363,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3434,13 @@
         <v>2890417</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>2738</v>
@@ -3398,28 +3449,28 @@
         <v>2950301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>5453</v>
       </c>
       <c r="N16" s="7">
-        <v>5840718</v>
+        <v>5840719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3485,13 @@
         <v>433477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>435</v>
@@ -3449,13 +3500,13 @@
         <v>469358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>833</v>
@@ -3464,13 +3515,13 @@
         <v>902835</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3536,13 @@
         <v>86202</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -3500,13 +3551,13 @@
         <v>122754</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>193</v>
@@ -3515,13 +3566,13 @@
         <v>208956</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3614,7 @@
         <v>6479</v>
       </c>
       <c r="N19" s="7">
-        <v>6952509</v>
+        <v>6952510</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3577,7 +3628,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F45638-B2F5-4D79-9519-8C50D415C894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1993FE1-4644-4211-B831-C8E0A2DFBC0C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3613,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3720,13 +3771,13 @@
         <v>650608</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>761</v>
@@ -3735,13 +3786,13 @@
         <v>848804</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1418</v>
@@ -3750,13 +3801,13 @@
         <v>1499412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3822,13 @@
         <v>82049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -3786,13 +3837,13 @@
         <v>113818</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>186</v>
@@ -3801,13 +3852,13 @@
         <v>195867</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,13 +3873,13 @@
         <v>20614</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3837,13 +3888,13 @@
         <v>26572</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>44</v>
@@ -3852,13 +3903,13 @@
         <v>47186</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3926,13 +3977,13 @@
         <v>1832147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>1652</v>
@@ -3941,13 +3992,13 @@
         <v>1719446</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>3378</v>
@@ -3956,13 +4007,13 @@
         <v>3551593</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +4028,13 @@
         <v>190691</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>193</v>
@@ -3992,13 +4043,13 @@
         <v>201475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>371</v>
@@ -4007,13 +4058,13 @@
         <v>392166</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4079,13 @@
         <v>46426</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4043,13 +4094,13 @@
         <v>62260</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -4058,13 +4109,13 @@
         <v>108686</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4183,13 @@
         <v>469291</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>447</v>
@@ -4147,13 +4198,13 @@
         <v>465173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>877</v>
@@ -4162,13 +4213,13 @@
         <v>934462</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4234,13 @@
         <v>64240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4198,13 +4249,13 @@
         <v>61914</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4213,13 +4264,13 @@
         <v>126154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4285,13 @@
         <v>12334</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4249,13 +4300,13 @@
         <v>16690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4264,13 +4315,13 @@
         <v>29024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4389,13 @@
         <v>2952046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>2860</v>
@@ -4353,13 +4404,13 @@
         <v>3033422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>5673</v>
@@ -4368,13 +4419,13 @@
         <v>5985467</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4440,13 @@
         <v>336980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4404,13 +4455,13 @@
         <v>377207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>675</v>
@@ -4419,13 +4470,13 @@
         <v>714186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4491,13 @@
         <v>79374</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4455,13 +4506,13 @@
         <v>105522</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -4470,13 +4521,13 @@
         <v>184896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,7 +4583,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C46B9A2-9AB3-41E3-8277-6729EFD604F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4C25AB-55CA-41B1-913E-A19E663B0304}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4568,7 +4619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4675,13 +4726,13 @@
         <v>477657</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>1285</v>
@@ -4690,13 +4741,13 @@
         <v>741536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>1901</v>
@@ -4705,13 +4756,13 @@
         <v>1219193</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4777,13 @@
         <v>36304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -4741,13 +4792,13 @@
         <v>68916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -4756,13 +4807,13 @@
         <v>105220</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4828,13 @@
         <v>26623</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4792,13 +4843,13 @@
         <v>23169</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4807,13 +4858,13 @@
         <v>49792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,13 +4932,13 @@
         <v>1982398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>2642</v>
@@ -4896,13 +4947,13 @@
         <v>2047889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>4474</v>
@@ -4911,13 +4962,13 @@
         <v>4030287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,13 +4983,13 @@
         <v>148170</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>224</v>
@@ -4947,13 +4998,13 @@
         <v>159943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>357</v>
@@ -4962,13 +5013,13 @@
         <v>308113</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +5034,13 @@
         <v>30258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -4998,13 +5049,13 @@
         <v>41057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -5013,13 +5064,13 @@
         <v>71315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5138,13 @@
         <v>614891</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
         <v>890</v>
@@ -5102,13 +5153,13 @@
         <v>636660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
         <v>1510</v>
@@ -5117,13 +5168,13 @@
         <v>1251551</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5189,13 @@
         <v>45205</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
@@ -5153,13 +5204,13 @@
         <v>56979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5168,13 +5219,13 @@
         <v>102184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5240,13 @@
         <v>12943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -5204,13 +5255,13 @@
         <v>18327</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -5219,13 +5270,13 @@
         <v>31270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5344,13 @@
         <v>3074946</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>4817</v>
@@ -5308,28 +5359,28 @@
         <v>3426085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>7885</v>
       </c>
       <c r="N16" s="7">
-        <v>6501031</v>
+        <v>6501032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5395,13 @@
         <v>229679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
@@ -5359,13 +5410,13 @@
         <v>285838</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>645</v>
@@ -5374,13 +5425,13 @@
         <v>515517</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5446,13 @@
         <v>69823</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -5410,13 +5461,13 @@
         <v>82554</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
         <v>178</v>
@@ -5425,13 +5476,13 @@
         <v>152377</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5524,7 @@
         <v>8708</v>
       </c>
       <c r="N19" s="7">
-        <v>7168925</v>
+        <v>7168926</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5487,7 +5538,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEF179A-A357-4DEA-90B2-86B8773B5555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43F4F62-51ED-4535-BB85-C3EE673D7FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6F6E054-C391-47D0-A614-89133CFC09AA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED9DB55-4757-4F82-8A39-D7E59CAAAD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
   <si>
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2007 (Tasa respuesta: 99,77%)</t>
   </si>
@@ -1028,304 +1028,286 @@
     <t>Población según si en el barrio donde vive sufre malos olores que llegan a su vivienda en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB77C52-9C61-4C1D-BB99-46D561623F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDBA324-F7FB-4233-BB4C-6D20FC6CF89F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2046,7 @@
         <v>1310</v>
       </c>
       <c r="D8" s="7">
-        <v>1346063</v>
+        <v>1346064</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2115,7 +2097,7 @@
         <v>289</v>
       </c>
       <c r="D9" s="7">
-        <v>296433</v>
+        <v>296434</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2217,7 +2199,7 @@
         <v>1645</v>
       </c>
       <c r="D11" s="7">
-        <v>1689710</v>
+        <v>1689711</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2692,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F7B873-C69E-4686-96C8-78A54A25D9DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DE9D12-4FBE-4524-AE9D-1D8E56F8E9DF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3049,7 +3031,7 @@
         <v>2894</v>
       </c>
       <c r="N8" s="7">
-        <v>3077685</v>
+        <v>3077686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>159</v>
@@ -3202,7 +3184,7 @@
         <v>3479</v>
       </c>
       <c r="N11" s="7">
-        <v>3705346</v>
+        <v>3705347</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3647,7 +3629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1993FE1-4644-4211-B831-C8E0A2DFBC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD96E4-69E8-44C4-B28B-E9DB4695D74C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4386,7 +4368,7 @@
         <v>2813</v>
       </c>
       <c r="D16" s="7">
-        <v>2952046</v>
+        <v>2952045</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>262</v>
@@ -4539,7 +4521,7 @@
         <v>3207</v>
       </c>
       <c r="D19" s="7">
-        <v>3368400</v>
+        <v>3368399</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4602,7 +4584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4C25AB-55CA-41B1-913E-A19E663B0304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0241DA-8F2D-4F22-8FF3-B4548DC5CCC3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4723,7 +4705,7 @@
         <v>616</v>
       </c>
       <c r="D4" s="7">
-        <v>477657</v>
+        <v>454554</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>329</v>
@@ -4738,31 +4720,31 @@
         <v>1285</v>
       </c>
       <c r="I4" s="7">
-        <v>741536</v>
+        <v>671130</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>1901</v>
       </c>
       <c r="N4" s="7">
-        <v>1219193</v>
+        <v>1125684</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,46 +4756,46 @@
         <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>36304</v>
+        <v>34239</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
       </c>
       <c r="I5" s="7">
-        <v>68916</v>
+        <v>60976</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
       </c>
       <c r="N5" s="7">
-        <v>105220</v>
+        <v>95215</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,10 +4807,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>26623</v>
+        <v>25126</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>347</v>
@@ -4840,7 +4822,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>23169</v>
+        <v>21216</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>349</v>
@@ -4855,7 +4837,7 @@
         <v>61</v>
       </c>
       <c r="N6" s="7">
-        <v>49792</v>
+        <v>46342</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>352</v>
@@ -4876,7 +4858,7 @@
         <v>690</v>
       </c>
       <c r="D7" s="7">
-        <v>540584</v>
+        <v>513919</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4891,7 +4873,7 @@
         <v>1425</v>
       </c>
       <c r="I7" s="7">
-        <v>833621</v>
+        <v>753322</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4906,7 +4888,7 @@
         <v>2115</v>
       </c>
       <c r="N7" s="7">
-        <v>1374205</v>
+        <v>1267241</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4929,7 +4911,7 @@
         <v>1832</v>
       </c>
       <c r="D8" s="7">
-        <v>1982398</v>
+        <v>2116531</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>355</v>
@@ -4944,7 +4926,7 @@
         <v>2642</v>
       </c>
       <c r="I8" s="7">
-        <v>2047889</v>
+        <v>2051572</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>358</v>
@@ -4959,7 +4941,7 @@
         <v>4474</v>
       </c>
       <c r="N8" s="7">
-        <v>4030287</v>
+        <v>4168104</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>361</v>
@@ -4980,7 +4962,7 @@
         <v>133</v>
       </c>
       <c r="D9" s="7">
-        <v>148170</v>
+        <v>142430</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>364</v>
@@ -4995,7 +4977,7 @@
         <v>224</v>
       </c>
       <c r="I9" s="7">
-        <v>159943</v>
+        <v>147918</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>367</v>
@@ -5010,13 +4992,13 @@
         <v>357</v>
       </c>
       <c r="N9" s="7">
-        <v>308113</v>
+        <v>290348</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>371</v>
@@ -5031,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>30258</v>
+        <v>30255</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>372</v>
@@ -5046,7 +5028,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>41057</v>
+        <v>37751</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>375</v>
@@ -5061,7 +5043,7 @@
         <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>71315</v>
+        <v>68006</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>378</v>
@@ -5082,7 +5064,7 @@
         <v>1991</v>
       </c>
       <c r="D11" s="7">
-        <v>2160825</v>
+        <v>2289216</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5097,7 +5079,7 @@
         <v>2920</v>
       </c>
       <c r="I11" s="7">
-        <v>2248890</v>
+        <v>2237240</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5112,7 +5094,7 @@
         <v>4911</v>
       </c>
       <c r="N11" s="7">
-        <v>4409715</v>
+        <v>4526457</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5135,7 +5117,7 @@
         <v>620</v>
       </c>
       <c r="D12" s="7">
-        <v>614891</v>
+        <v>591325</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>381</v>
@@ -5150,7 +5132,7 @@
         <v>890</v>
       </c>
       <c r="I12" s="7">
-        <v>636660</v>
+        <v>589881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>384</v>
@@ -5165,7 +5147,7 @@
         <v>1510</v>
       </c>
       <c r="N12" s="7">
-        <v>1251551</v>
+        <v>1181207</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>387</v>
@@ -5186,46 +5168,46 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>45205</v>
+        <v>42823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>56979</v>
+        <v>51831</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
       </c>
       <c r="N13" s="7">
-        <v>102184</v>
+        <v>94654</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,46 +5219,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>12943</v>
+        <v>12475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>18327</v>
+        <v>16972</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>31270</v>
+        <v>29446</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5270,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5303,7 +5285,7 @@
         <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>711966</v>
+        <v>658684</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5318,7 +5300,7 @@
         <v>1682</v>
       </c>
       <c r="N15" s="7">
-        <v>1385005</v>
+        <v>1305308</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5341,46 +5323,46 @@
         <v>3068</v>
       </c>
       <c r="D16" s="7">
-        <v>3074946</v>
+        <v>3162410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>4817</v>
       </c>
       <c r="I16" s="7">
-        <v>3426085</v>
+        <v>3312584</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>7885</v>
       </c>
       <c r="N16" s="7">
-        <v>6501032</v>
+        <v>6474994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,46 +5374,46 @@
         <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>229679</v>
+        <v>219493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>415</v>
       </c>
       <c r="I17" s="7">
-        <v>285838</v>
+        <v>260724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>645</v>
       </c>
       <c r="N17" s="7">
-        <v>515517</v>
+        <v>480217</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,46 +5425,46 @@
         <v>64</v>
       </c>
       <c r="D18" s="7">
-        <v>69823</v>
+        <v>67856</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
       </c>
       <c r="I18" s="7">
-        <v>82554</v>
+        <v>75938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>178</v>
       </c>
       <c r="N18" s="7">
-        <v>152377</v>
+        <v>143794</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,7 +5476,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3374448</v>
+        <v>3449759</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5509,7 +5491,7 @@
         <v>5346</v>
       </c>
       <c r="I19" s="7">
-        <v>3794477</v>
+        <v>3649247</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5524,7 +5506,7 @@
         <v>8708</v>
       </c>
       <c r="N19" s="7">
-        <v>7168926</v>
+        <v>7099005</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
